--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 20211.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="291">
   <si>
     <t>Mat</t>
   </si>
@@ -82,6 +82,216 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>COUDER</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>CHORA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>ALDUCIN</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>BRISEÑO</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>AYOCTLE</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>BONOLA</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ALEJO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CESPEDES</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>DONJUAN</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
+  </si>
+  <si>
     <t>CADEZA</t>
   </si>
   <si>
@@ -91,58 +301,496 @@
     <t>FLORENCIO</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
     <t>JUAN</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>OCTAVIANO</t>
   </si>
   <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>AMABLE</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>BALVIN</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>GROTH</t>
+  </si>
+  <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>MERINO</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>VELEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>CELICEO</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>SUSUNAGA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>AGUILA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>VOTTE</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>TLEHUACTLE</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>BERUDEZ</t>
+  </si>
+  <si>
+    <t>SILVERIO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>ONOFRE</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>CARTEÑO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>ALCARAZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>LLAVE</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>MELCHOR</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
     <t>GALLARDO</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>BERNABE</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>DEL ANGEL</t>
   </si>
   <si>
     <t>MIRON</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TETLA</t>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VALERDE</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>BERMUDEZ</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>YULIANA</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>MARTHA</t>
+  </si>
+  <si>
+    <t>GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>PAOLA</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>NADYA GUADALUPE</t>
+  </si>
+  <si>
+    <t>YATZIRI NAOMI</t>
+  </si>
+  <si>
+    <t>NURIEL</t>
+  </si>
+  <si>
+    <t>DENISSE MERARY</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>OFELIA</t>
+  </si>
+  <si>
+    <t>HILARIO</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>DARIANA MONSERRAT</t>
+  </si>
+  <si>
+    <t>MARIAM ABRIL</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>MERIELING YAMILETH</t>
+  </si>
+  <si>
+    <t>SAIRA YAMILET</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IAN ISSAID</t>
+  </si>
+  <si>
+    <t>EMMA NOHEMI</t>
+  </si>
+  <si>
+    <t>MAYTE DOLORES</t>
+  </si>
+  <si>
+    <t>MICHELL</t>
+  </si>
+  <si>
+    <t>KARIME GUADALUPE</t>
+  </si>
+  <si>
+    <t>MICAELA</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>MARIANA JOSELIN</t>
+  </si>
+  <si>
+    <t>JESE YAEL</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>DIEGO MIGUEL</t>
+  </si>
+  <si>
+    <t>JAXIRY JAZMIN</t>
+  </si>
+  <si>
+    <t>KATHERINE AZUL</t>
+  </si>
+  <si>
+    <t>ABRIL CITLALLI</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>DANNA ARLETTE</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>ESTEFANIA</t>
+  </si>
+  <si>
+    <t>RAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>ERICK MANUEL</t>
+  </si>
+  <si>
+    <t>KARLA FABIOLA</t>
+  </si>
+  <si>
+    <t>IRVING YAHIR</t>
+  </si>
+  <si>
+    <t>BRAULIO VADIR</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>YARELY JACQUELINE</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>RENZO JHOVANI</t>
+  </si>
+  <si>
+    <t>MARIA DE JESUS</t>
+  </si>
+  <si>
+    <t>ANGEL EDUARDO</t>
+  </si>
+  <si>
+    <t>YESUA ISIDRO</t>
+  </si>
+  <si>
+    <t>HANNIA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ISMERAI</t>
+  </si>
+  <si>
+    <t>DAMARIS JABNEL</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>FERNANDA CAMILA</t>
+  </si>
+  <si>
+    <t>MELISSA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>CATHERIN DALAY</t>
+  </si>
+  <si>
+    <t>ALMA EDITH</t>
+  </si>
+  <si>
+    <t>ROCIO</t>
+  </si>
+  <si>
+    <t>KATHE ALONDRA</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>AURORA</t>
+  </si>
+  <si>
+    <t>RAUL ANTONIO</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
   </si>
   <si>
     <t>IRVING OTTONIEL</t>
@@ -160,9 +808,6 @@
     <t>JUAN LUIS</t>
   </si>
   <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
     <t>URIEL</t>
   </si>
   <si>
@@ -179,6 +824,72 @@
   </si>
   <si>
     <t>JOSUE GILBERTO</t>
+  </si>
+  <si>
+    <t>KAREN YESSENIA</t>
+  </si>
+  <si>
+    <t>CRYSTAL MICHELL</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>ABDIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>LEYNER</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>GUADALUPE ABRIL</t>
+  </si>
+  <si>
+    <t>TANIA ARLETH</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>GUILLERMO UBALDO</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>ASAEL PAULINO</t>
+  </si>
+  <si>
+    <t>HEIDI YAMILET</t>
+  </si>
+  <si>
+    <t>JUDITH ESTEFANIA</t>
+  </si>
+  <si>
+    <t>MILKA</t>
+  </si>
+  <si>
+    <t>DAYRA DENISSE</t>
+  </si>
+  <si>
+    <t>SARAI</t>
+  </si>
+  <si>
+    <t>ATZIN ADAO</t>
+  </si>
+  <si>
+    <t>ALAN YAMIL</t>
+  </si>
+  <si>
+    <t>ROSARIO DOLORES</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1111,278 +1822,2946 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920088</v>
+        <v>19330051920276</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920090</v>
+        <v>19330051920159</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920089</v>
+        <v>19330051920162</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920097</v>
+        <v>19330051920165</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920100</v>
+        <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920102</v>
+        <v>19330051920234</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920103</v>
+        <v>19330051920237</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920106</v>
+        <v>19330051420227</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920107</v>
+        <v>19330051920239</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920110</v>
+        <v>19330051920125</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920115</v>
+        <v>19330051920131</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
+        <v>19330051920133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920456</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920362</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920368</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920097</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920372</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920374</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920378</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920381</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920391</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920394</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920434</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920396</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920085</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920197</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920209</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920213</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19330051920149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>19330051920150</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>19330051920153</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>19330051920152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>19330051920154</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>19330051920160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>19330051920158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>19330051920423</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>19330051920281</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>19330051920161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>19330051920156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>19330051920166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>19330051920170</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>19330051920172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>19330051920173</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>19330051920176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>19330051920174</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>19330051920175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>19330051920178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>19330051920179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>19330051920180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>19330051920303</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>19330051920182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>19330051920223</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>19330051920430</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>19330051920225</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>19330051920226</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>19330051920229</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>19330051920230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>19330051920232</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>19330051920429</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>19330051920228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>19330051920404</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>19330051920240</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>19330051920242</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>19330051920245</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>19330051920126</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>19330051920127</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>19330051920128</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>19330051920129</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>19330051920380</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>19330051920132</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>19330051920134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>19330051920135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>19330051920002</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>19330051920136</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" t="s">
+        <v>248</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>19330051920137</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>19330051920143</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>19330051920144</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>251</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>19330051920147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>252</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>19330051920431</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>19330051920359</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>19330051920371</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>19330051920376</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" t="s">
+        <v>256</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>19330051920389</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>19330051920088</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>19330051920090</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" t="s">
+        <v>259</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>19330051920089</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" t="s">
+        <v>260</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>19330051920097</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>19330051920100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>19330051920103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>19330051920106</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100" t="s">
+        <v>264</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>19330051920107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
+        <v>265</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>19330051920110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" t="s">
+        <v>266</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>19330051920115</v>
+      </c>
+      <c r="B103" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" t="s">
+        <v>267</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
         <v>19330051920121</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="B104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="G104">
         <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>19330051920186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>19330051920185</v>
+      </c>
+      <c r="B106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" t="s">
+        <v>270</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>19330051920187</v>
+      </c>
+      <c r="B107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" t="s">
+        <v>271</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>19330051920189</v>
+      </c>
+      <c r="B108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" t="s">
+        <v>160</v>
+      </c>
+      <c r="D108" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>19330051920190</v>
+      </c>
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" t="s">
+        <v>273</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>19330051920192</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" t="s">
+        <v>274</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>19330051920194</v>
+      </c>
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
+        <v>161</v>
+      </c>
+      <c r="D111" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>19330051920193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" t="s">
+        <v>276</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>19330051920196</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" t="s">
+        <v>277</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>19330051920198</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>163</v>
+      </c>
+      <c r="D114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>19330051920199</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s">
+        <v>278</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>19330051920203</v>
+      </c>
+      <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>19330051920204</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" t="s">
+        <v>280</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>19330051920206</v>
+      </c>
+      <c r="B118" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" t="s">
+        <v>166</v>
+      </c>
+      <c r="D118" t="s">
+        <v>281</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>19330051920211</v>
+      </c>
+      <c r="B119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>282</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>19330051920215</v>
+      </c>
+      <c r="B120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" t="s">
+        <v>283</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>19330051920212</v>
+      </c>
+      <c r="B121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>19330051920214</v>
+      </c>
+      <c r="B122" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" t="s">
+        <v>167</v>
+      </c>
+      <c r="D122" t="s">
+        <v>284</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>19330051920216</v>
+      </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" t="s">
+        <v>285</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>19330051920218</v>
+      </c>
+      <c r="B124" t="s">
+        <v>108</v>
+      </c>
+      <c r="C124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" t="s">
+        <v>286</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>19330051920220</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>19330051920439</v>
+      </c>
+      <c r="B126" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" t="s">
+        <v>77</v>
+      </c>
+      <c r="D126" t="s">
+        <v>287</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>19330051920219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" t="s">
+        <v>288</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>19330051920221</v>
+      </c>
+      <c r="B128" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" t="s">
+        <v>169</v>
+      </c>
+      <c r="D128" t="s">
+        <v>289</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>18330051920351</v>
+      </c>
+      <c r="B129" t="s">
+        <v>112</v>
+      </c>
+      <c r="C129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/González Sánchez Rene Aurelio - Estadisticos 20211.xlsx
+++ b/docentes/González Sánchez Rene Aurelio - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Mat</t>
   </si>
@@ -82,100 +82,40 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>COUDER</t>
-  </si>
-  <si>
     <t>CABRERA</t>
   </si>
   <si>
-    <t>CHORA</t>
-  </si>
-  <si>
     <t>APALE</t>
   </si>
   <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>COLOHUA</t>
   </si>
   <si>
     <t>TEXOCO</t>
   </si>
   <si>
-    <t>MORO</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
     <t>CALPULALPAN</t>
   </si>
   <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>YULIANA</t>
-  </si>
-  <si>
     <t>AYELEN</t>
   </si>
   <si>
-    <t>GABRIEL ALEJANDRO</t>
-  </si>
-  <si>
     <t>EVELYN AISHA</t>
   </si>
   <si>
     <t>JOSE JAZAEL</t>
   </si>
   <si>
-    <t>DENISSE</t>
-  </si>
-  <si>
-    <t>JANETH</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
     <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>GUILLERMO UBALDO</t>
-  </si>
-  <si>
-    <t>JUDITH ESTEFANIA</t>
   </si>
 </sst>
 </file>
@@ -579,19 +519,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>74.29000000000001</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -605,19 +545,19 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>61.54</v>
+        <v>69.23</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -631,19 +571,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>95.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -657,19 +597,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>53.13</v>
+        <v>62.5</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -683,19 +623,19 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>79.41</v>
+        <v>94.12</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -709,19 +649,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +720,7 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -803,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -826,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -849,7 +789,7 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -872,7 +812,7 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -895,7 +835,7 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -957,19 +897,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>74.29000000000001</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H2">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -983,19 +923,19 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>61.54</v>
+        <v>69.23</v>
       </c>
       <c r="H3">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1009,19 +949,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>95.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1035,19 +975,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>53.13</v>
+        <v>62.5</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1061,19 +1001,19 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>79.41</v>
+        <v>94.12</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1087,19 +1027,19 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,16 +1084,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920276</v>
+        <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1167,22 +1107,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920151</v>
+        <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1190,208 +1130,47 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920227</v>
+        <v>19330051920085</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920358</v>
+        <v>19330051920429</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920085</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920201</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920213</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920149</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920429</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920214</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
         <v>6</v>
       </c>
     </row>
